--- a/lib/target.xlsx
+++ b/lib/target.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="385">
   <si>
     <t xml:space="preserve">From:____________________________________</t>
   </si>
@@ -245,6 +245,9 @@
     <t xml:space="preserve">fw press</t>
   </si>
   <si>
+    <t xml:space="preserve">$193</t>
+  </si>
+  <si>
     <t xml:space="preserve">L.O. purifiers</t>
   </si>
   <si>
@@ -335,6 +338,9 @@
     <t xml:space="preserve">Today</t>
   </si>
   <si>
+    <t xml:space="preserve">$194</t>
+  </si>
+  <si>
     <t xml:space="preserve">temp 2</t>
   </si>
   <si>
@@ -444,6 +450,9 @@
   </si>
   <si>
     <t xml:space="preserve">water temp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$197</t>
   </si>
   <si>
     <t xml:space="preserve">compr. suct.</t>
@@ -530,7 +539,7 @@
     <t xml:space="preserve">sw press.</t>
   </si>
   <si>
-    <t xml:space="preserve">$49</t>
+    <t xml:space="preserve">$164</t>
   </si>
   <si>
     <t xml:space="preserve">Oil Sep Level (middle)</t>
@@ -1256,6 +1265,9 @@
     <t xml:space="preserve">today</t>
   </si>
   <si>
+    <t xml:space="preserve">$195</t>
+  </si>
+  <si>
     <t xml:space="preserve">t/c Exh</t>
   </si>
   <si>
@@ -1293,6 +1305,9 @@
   </si>
   <si>
     <t xml:space="preserve">Transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$196</t>
   </si>
   <si>
     <t xml:space="preserve">E-drives</t>
@@ -1428,6 +1443,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">$198</t>
+  </si>
+  <si>
     <t xml:space="preserve">R.O.B.  yest</t>
   </si>
   <si>
@@ -1585,6 +1603,9 @@
   </si>
   <si>
     <t xml:space="preserve">$45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$192</t>
   </si>
   <si>
     <t xml:space="preserve">HR system</t>
@@ -3102,7 +3123,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="227">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3351,10 +3372,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3475,12 +3492,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3509,10 +3522,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3547,10 +3556,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3577,10 +3582,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -3667,10 +3668,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3711,10 +3708,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="74" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3811,20 +3804,8 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="76" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="76" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3891,10 +3872,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="85" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="99" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3951,10 +3928,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="92" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3971,8 +3944,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="108" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="108" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="109" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -4015,32 +3988,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="115" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="116" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -4159,16 +4112,16 @@
   <dimension ref="A1:AF52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="0.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.42"/>
@@ -4179,7 +4132,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.86"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="0.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="7"/>
@@ -4560,92 +4513,94 @@
       <c r="E8" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="54"/>
+      <c r="F8" s="54" t="s">
+        <v>73</v>
+      </c>
       <c r="H8" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
       <c r="K8" s="51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L8" s="51"/>
       <c r="M8" s="43"/>
       <c r="N8" s="12"/>
       <c r="O8" s="7"/>
       <c r="R8" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S8" s="55"/>
       <c r="T8" s="55"/>
       <c r="U8" s="30"/>
       <c r="V8" s="48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" s="49"/>
       <c r="X8" s="49"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA8" s="49"/>
       <c r="AB8" s="49"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE8" s="43"/>
       <c r="AF8" s="43"/>
     </row>
     <row r="9" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H9" s="60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I9" s="61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="43"/>
       <c r="N9" s="12"/>
       <c r="O9" s="7"/>
-      <c r="R9" s="62" t="s">
-        <v>87</v>
+      <c r="R9" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="S9" s="55"/>
       <c r="T9" s="55"/>
       <c r="U9" s="30"/>
       <c r="V9" s="48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W9" s="49"/>
       <c r="X9" s="49"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA9" s="49"/>
       <c r="AB9" s="49"/>
       <c r="AC9" s="8"/>
-      <c r="AD9" s="63" t="s">
+      <c r="AD9" s="62" t="s">
         <v>35</v>
       </c>
       <c r="AE9" s="43"/>
@@ -4653,51 +4608,51 @@
     </row>
     <row r="10" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="B10" s="63"/>
       <c r="C10" s="58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="H10" s="64" t="s">
         <v>95</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>96</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L10" s="35"/>
       <c r="M10" s="43"/>
       <c r="N10" s="12"/>
       <c r="O10" s="7"/>
-      <c r="R10" s="62" t="s">
-        <v>97</v>
+      <c r="R10" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="S10" s="55"/>
       <c r="T10" s="55"/>
       <c r="U10" s="30"/>
       <c r="V10" s="48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W10" s="49"/>
       <c r="X10" s="49"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AA10" s="49"/>
       <c r="AB10" s="49"/>
       <c r="AC10" s="8"/>
-      <c r="AD10" s="63" t="s">
+      <c r="AD10" s="62" t="s">
         <v>48</v>
       </c>
       <c r="AE10" s="43"/>
@@ -4705,49 +4660,51 @@
     </row>
     <row r="11" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="64"/>
+        <v>101</v>
+      </c>
+      <c r="B11" s="63"/>
       <c r="C11" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="H11" s="65" t="s">
+      <c r="E11" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="I11" s="66" t="s">
+      <c r="F11" s="54" t="s">
         <v>104</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="65" t="s">
+        <v>106</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L11" s="35"/>
       <c r="M11" s="43"/>
       <c r="N11" s="12"/>
       <c r="O11" s="7"/>
-      <c r="R11" s="62" t="s">
-        <v>106</v>
+      <c r="R11" s="26" t="s">
+        <v>108</v>
       </c>
       <c r="S11" s="55"/>
       <c r="T11" s="55"/>
       <c r="U11" s="30"/>
       <c r="V11" s="48" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="W11" s="49"/>
       <c r="X11" s="49"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="41" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA11" s="49"/>
       <c r="AB11" s="49"/>
       <c r="AC11" s="8"/>
-      <c r="AD11" s="63" t="s">
+      <c r="AD11" s="62" t="s">
         <v>59</v>
       </c>
       <c r="AE11" s="43"/>
@@ -4755,108 +4712,108 @@
     </row>
     <row r="12" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="68"/>
+        <v>111</v>
+      </c>
+      <c r="B12" s="67"/>
       <c r="C12" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>113</v>
       </c>
       <c r="F12" s="54"/>
-      <c r="H12" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I12" s="66" t="s">
-        <v>113</v>
+      <c r="H12" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>115</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L12" s="35"/>
       <c r="M12" s="43"/>
       <c r="N12" s="12"/>
       <c r="O12" s="7"/>
-      <c r="R12" s="62" t="s">
-        <v>115</v>
+      <c r="R12" s="26" t="s">
+        <v>117</v>
       </c>
       <c r="S12" s="55"/>
       <c r="T12" s="55"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
+      <c r="V12" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
+        <v>119</v>
+      </c>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
       <c r="AC12" s="8"/>
-      <c r="AD12" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="73"/>
+      <c r="AD12" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
     </row>
     <row r="13" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="E13" s="69" t="s">
-        <v>119</v>
+      <c r="E13" s="68" t="s">
+        <v>121</v>
       </c>
       <c r="F13" s="54"/>
-      <c r="H13" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="66" t="s">
-        <v>121</v>
+      <c r="H13" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="65" t="s">
+        <v>123</v>
       </c>
       <c r="J13" s="8"/>
-      <c r="K13" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="L13" s="76"/>
+      <c r="K13" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" s="75"/>
       <c r="M13" s="46" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="7"/>
       <c r="P13" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="R13" s="62" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="R13" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="S13" s="55"/>
       <c r="T13" s="55"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="W13" s="78" t="s">
+      <c r="V13" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="W13" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="X13" s="79" t="s">
+      <c r="X13" s="78" t="s">
         <v>12</v>
       </c>
       <c r="Y13" s="12"/>
-      <c r="Z13" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA13" s="78" t="s">
+      <c r="Z13" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA13" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="AB13" s="79" t="s">
+      <c r="AB13" s="78" t="s">
         <v>12</v>
       </c>
       <c r="AC13" s="12"/>
-      <c r="AD13" s="80" t="s">
-        <v>126</v>
+      <c r="AD13" s="79" t="s">
+        <v>128</v>
       </c>
       <c r="AE13" s="43"/>
       <c r="AF13" s="43"/>
@@ -4867,65 +4824,65 @@
       <c r="E14" s="12"/>
       <c r="F14" s="7"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="L14" s="76"/>
+      <c r="K14" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="75"/>
       <c r="M14" s="46" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="7"/>
-      <c r="R14" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="83"/>
+      <c r="R14" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="48" t="s">
         <v>33</v>
       </c>
       <c r="W14" s="49"/>
-      <c r="X14" s="84"/>
+      <c r="X14" s="83"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="48" t="s">
         <v>34</v>
       </c>
       <c r="AA14" s="49"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="85" t="s">
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="86"/>
+      <c r="AE14" s="85"/>
+      <c r="AF14" s="85"/>
     </row>
     <row r="15" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="L15" s="76"/>
+      <c r="K15" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" s="75"/>
       <c r="M15" s="46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="7"/>
-      <c r="R15" s="87" t="s">
-        <v>135</v>
+      <c r="R15" s="86" t="s">
+        <v>137</v>
       </c>
       <c r="S15" s="32" t="s">
         <v>11</v>
@@ -4946,8 +4903,8 @@
       <c r="AA15" s="49"/>
       <c r="AB15" s="49"/>
       <c r="AC15" s="8"/>
-      <c r="AD15" s="88" t="s">
-        <v>136</v>
+      <c r="AD15" s="87" t="s">
+        <v>138</v>
       </c>
       <c r="AE15" s="22" t="s">
         <v>11</v>
@@ -4957,41 +4914,43 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="91"/>
-      <c r="E16" s="92" t="s">
+      <c r="A16" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="93"/>
+      <c r="B16" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="90"/>
+      <c r="E16" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="92" t="s">
+        <v>142</v>
+      </c>
       <c r="H16" s="26" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J16" s="8"/>
-      <c r="K16" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16" s="76"/>
+      <c r="K16" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="75"/>
       <c r="M16" s="46" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="7"/>
-      <c r="R16" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="S16" s="95" t="s">
-        <v>145</v>
-      </c>
-      <c r="T16" s="95" t="s">
-        <v>146</v>
+      <c r="R16" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="S16" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="T16" s="93" t="s">
+        <v>149</v>
       </c>
       <c r="U16" s="12"/>
       <c r="V16" s="48" t="s">
@@ -5006,46 +4965,46 @@
       <c r="AA16" s="49"/>
       <c r="AB16" s="49"/>
       <c r="AC16" s="8"/>
-      <c r="AD16" s="96" t="s">
+      <c r="AD16" s="94" t="s">
         <v>36</v>
       </c>
       <c r="AE16" s="34"/>
       <c r="AF16" s="34"/>
     </row>
     <row r="17" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="98"/>
+      <c r="A17" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="96"/>
       <c r="E17" s="12"/>
       <c r="F17" s="7"/>
       <c r="H17" s="26" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="K17" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="L17" s="76"/>
+      <c r="K17" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" s="75"/>
       <c r="M17" s="46" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="7"/>
-      <c r="R17" s="94" t="s">
-        <v>153</v>
+      <c r="R17" s="41" t="s">
+        <v>156</v>
       </c>
       <c r="S17" s="38" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="T17" s="38" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="U17" s="12"/>
       <c r="V17" s="48" t="s">
@@ -5060,199 +5019,199 @@
       <c r="AA17" s="49"/>
       <c r="AB17" s="49"/>
       <c r="AC17" s="8"/>
-      <c r="AD17" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE17" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF17" s="66" t="s">
-        <v>158</v>
+      <c r="AD17" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE17" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF17" s="65" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="65" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="98"/>
+      <c r="A18" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="96"/>
       <c r="E18" s="12"/>
       <c r="F18" s="7"/>
       <c r="H18" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="I18" s="99" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="I18" s="97" t="s">
+        <v>165</v>
       </c>
       <c r="J18" s="8"/>
-      <c r="K18" s="75" t="s">
-        <v>163</v>
-      </c>
-      <c r="L18" s="76"/>
+      <c r="K18" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" s="75"/>
       <c r="M18" s="46" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="7"/>
-      <c r="R18" s="94" t="s">
-        <v>165</v>
+      <c r="R18" s="41" t="s">
+        <v>168</v>
       </c>
       <c r="S18" s="55"/>
       <c r="T18" s="55"/>
       <c r="U18" s="12"/>
       <c r="V18" s="48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W18" s="49"/>
       <c r="X18" s="49"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA18" s="49"/>
       <c r="AB18" s="49"/>
       <c r="AC18" s="8"/>
-      <c r="AD18" s="63" t="s">
-        <v>166</v>
+      <c r="AD18" s="62" t="s">
+        <v>169</v>
       </c>
       <c r="AE18" s="46" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AF18" s="46" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="97" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="98"/>
+      <c r="A19" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="96"/>
       <c r="E19" s="12"/>
       <c r="F19" s="7"/>
       <c r="H19" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="I19" s="99" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="I19" s="97" t="s">
+        <v>175</v>
       </c>
       <c r="J19" s="8"/>
-      <c r="K19" s="75" t="s">
-        <v>173</v>
-      </c>
-      <c r="L19" s="76"/>
+      <c r="K19" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" s="75"/>
       <c r="M19" s="46" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="7"/>
-      <c r="R19" s="94" t="s">
-        <v>175</v>
+      <c r="R19" s="41" t="s">
+        <v>178</v>
       </c>
       <c r="S19" s="55"/>
       <c r="T19" s="55"/>
       <c r="U19" s="12"/>
       <c r="V19" s="48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W19" s="49"/>
       <c r="X19" s="49"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA19" s="49"/>
       <c r="AB19" s="49"/>
       <c r="AC19" s="8"/>
-      <c r="AD19" s="63" t="s">
-        <v>176</v>
+      <c r="AD19" s="62" t="s">
+        <v>179</v>
       </c>
       <c r="AE19" s="46" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AF19" s="46" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" s="97" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="98"/>
+      <c r="A20" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="96"/>
       <c r="E20" s="12"/>
       <c r="F20" s="7"/>
       <c r="H20" s="26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I20" s="46" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J20" s="8"/>
-      <c r="K20" s="75" t="s">
-        <v>183</v>
-      </c>
-      <c r="L20" s="76"/>
+      <c r="K20" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" s="75"/>
       <c r="M20" s="46" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="7"/>
-      <c r="R20" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
+      <c r="R20" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
       <c r="U20" s="12"/>
       <c r="V20" s="48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W20" s="49"/>
       <c r="X20" s="49"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AA20" s="49"/>
       <c r="AB20" s="49"/>
       <c r="AC20" s="8"/>
-      <c r="AD20" s="72" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE20" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF20" s="101" t="s">
-        <v>187</v>
+      <c r="AD20" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE20" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF20" s="99" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="102" t="s">
-        <v>188</v>
-      </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
+      <c r="A21" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="103"/>
+      <c r="F21" s="100"/>
       <c r="H21" s="26" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I21" s="46" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J21" s="8"/>
-      <c r="K21" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="L21" s="104"/>
+      <c r="K21" s="101" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" s="101"/>
       <c r="M21" s="46" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="N21" s="12"/>
       <c r="O21" s="7"/>
@@ -5260,49 +5219,49 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
-      <c r="V21" s="105" t="s">
-        <v>107</v>
-      </c>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="106"/>
-      <c r="Z21" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
+      <c r="V21" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="W21" s="70"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="103"/>
+      <c r="Z21" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="70"/>
       <c r="AC21" s="8"/>
-      <c r="AD21" s="107" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE21" s="108" t="s">
+      <c r="AD21" s="104" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE21" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="AF21" s="108" t="s">
+      <c r="AF21" s="105" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
+      <c r="A22" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
       <c r="E22" s="12"/>
       <c r="F22" s="7"/>
       <c r="H22" s="26" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J22" s="8"/>
       <c r="N22" s="12"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="87" t="s">
-        <v>197</v>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="86" t="s">
+        <v>200</v>
       </c>
       <c r="S22" s="32" t="s">
         <v>11</v>
@@ -5315,31 +5274,31 @@
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="8"/>
-      <c r="Z22" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA22" s="112"/>
-      <c r="AB22" s="112"/>
+      <c r="Z22" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA22" s="108"/>
+      <c r="AB22" s="108"/>
       <c r="AC22" s="8"/>
-      <c r="AD22" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE22" s="114"/>
-      <c r="AF22" s="115"/>
+      <c r="AD22" s="109" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE22" s="110"/>
+      <c r="AF22" s="111"/>
     </row>
     <row r="23" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
+      <c r="A23" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
       <c r="E23" s="12"/>
       <c r="F23" s="7"/>
       <c r="H23" s="26" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I23" s="46" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="12"/>
@@ -5347,14 +5306,14 @@
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="7"/>
-      <c r="R23" s="94" t="s">
-        <v>202</v>
-      </c>
-      <c r="S23" s="95" t="s">
-        <v>203</v>
+      <c r="R23" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="S23" s="93" t="s">
+        <v>206</v>
       </c>
       <c r="T23" s="38" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="U23" s="12"/>
       <c r="X23" s="8"/>
@@ -5363,18 +5322,18 @@
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
-      <c r="AD23" s="113" t="s">
-        <v>205</v>
+      <c r="AD23" s="109" t="s">
+        <v>208</v>
       </c>
       <c r="AE23" s="43"/>
-      <c r="AF23" s="117"/>
+      <c r="AF23" s="113"/>
     </row>
     <row r="24" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H24" s="26" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I24" s="46" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="12"/>
@@ -5382,46 +5341,46 @@
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="7"/>
-      <c r="R24" s="94" t="s">
-        <v>208</v>
+      <c r="R24" s="41" t="s">
+        <v>211</v>
       </c>
       <c r="S24" s="38" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="T24" s="38" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="U24" s="12"/>
-      <c r="V24" s="118" t="s">
-        <v>211</v>
-      </c>
-      <c r="W24" s="118"/>
-      <c r="X24" s="118"/>
-      <c r="Y24" s="118"/>
-      <c r="Z24" s="118"/>
-      <c r="AA24" s="118"/>
-      <c r="AB24" s="118"/>
-      <c r="AD24" s="119" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE24" s="117"/>
-      <c r="AF24" s="117"/>
+      <c r="V24" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="W24" s="114"/>
+      <c r="X24" s="114"/>
+      <c r="Y24" s="114"/>
+      <c r="Z24" s="114"/>
+      <c r="AA24" s="114"/>
+      <c r="AB24" s="114"/>
+      <c r="AD24" s="109" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE24" s="113"/>
+      <c r="AF24" s="113"/>
     </row>
     <row r="25" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F25" s="6"/>
       <c r="H25" s="26" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I25" s="46" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="12"/>
@@ -5429,56 +5388,56 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="7"/>
-      <c r="R25" s="94" t="s">
+      <c r="R25" s="41" t="s">
         <v>24</v>
       </c>
       <c r="S25" s="38" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="T25" s="38" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="U25" s="12"/>
-      <c r="V25" s="120"/>
-      <c r="W25" s="121" t="s">
-        <v>219</v>
-      </c>
-      <c r="X25" s="122" t="s">
-        <v>220</v>
+      <c r="V25" s="115"/>
+      <c r="W25" s="116" t="s">
+        <v>222</v>
+      </c>
+      <c r="X25" s="117" t="s">
+        <v>223</v>
       </c>
       <c r="Y25" s="12"/>
-      <c r="Z25" s="123" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA25" s="123"/>
-      <c r="AB25" s="124" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD25" s="113" t="s">
-        <v>223</v>
+      <c r="Z25" s="118" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA25" s="118"/>
+      <c r="AB25" s="119" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD25" s="109" t="s">
+        <v>226</v>
       </c>
       <c r="AE25" s="43"/>
-      <c r="AF25" s="117"/>
+      <c r="AF25" s="113"/>
     </row>
     <row r="26" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="23" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="61" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F26" s="61" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I26" s="46" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="12"/>
@@ -5486,493 +5445,497 @@
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="7"/>
-      <c r="R26" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="S26" s="95" t="s">
-        <v>230</v>
+      <c r="R26" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="S26" s="93" t="s">
+        <v>233</v>
       </c>
       <c r="T26" s="38" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="U26" s="12"/>
-      <c r="V26" s="125"/>
-      <c r="W26" s="123" t="s">
+      <c r="V26" s="120"/>
+      <c r="W26" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="X26" s="126"/>
-      <c r="Y26" s="127"/>
-      <c r="Z26" s="128"/>
-      <c r="AA26" s="129" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB26" s="130"/>
-      <c r="AD26" s="113" t="s">
-        <v>233</v>
+      <c r="X26" s="121"/>
+      <c r="Y26" s="122"/>
+      <c r="Z26" s="123"/>
+      <c r="AA26" s="124" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB26" s="125"/>
+      <c r="AD26" s="109" t="s">
+        <v>236</v>
       </c>
       <c r="AE26" s="43"/>
-      <c r="AF26" s="117"/>
+      <c r="AF26" s="113"/>
     </row>
     <row r="27" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="26" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B27" s="35"/>
       <c r="C27" s="61" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F27" s="61" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H27" s="44" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I27" s="46" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J27" s="8"/>
-      <c r="R27" s="94" t="s">
-        <v>240</v>
+      <c r="R27" s="41" t="s">
+        <v>243</v>
       </c>
       <c r="S27" s="38" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="T27" s="38" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="U27" s="12"/>
-      <c r="V27" s="131"/>
-      <c r="W27" s="132" t="s">
+      <c r="V27" s="126"/>
+      <c r="W27" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="X27" s="133"/>
-      <c r="Y27" s="134"/>
-      <c r="Z27" s="128"/>
-      <c r="AA27" s="129" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB27" s="130"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="129"/>
+      <c r="Z27" s="123"/>
+      <c r="AA27" s="124" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB27" s="125"/>
       <c r="AC27" s="8"/>
-      <c r="AD27" s="135" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE27" s="136"/>
-      <c r="AF27" s="136"/>
+      <c r="AD27" s="130" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE27" s="131"/>
+      <c r="AF27" s="131"/>
     </row>
     <row r="28" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="26" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B28" s="35"/>
       <c r="C28" s="61" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F28" s="61" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J28" s="8"/>
-      <c r="R28" s="94" t="s">
-        <v>249</v>
+      <c r="R28" s="41" t="s">
+        <v>252</v>
       </c>
       <c r="S28" s="38" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="T28" s="38" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="U28" s="12"/>
-      <c r="V28" s="131"/>
-      <c r="W28" s="132" t="s">
+      <c r="V28" s="126"/>
+      <c r="W28" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="X28" s="133"/>
-      <c r="Y28" s="134"/>
-      <c r="Z28" s="137" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA28" s="137"/>
-      <c r="AB28" s="138" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD28" s="139" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE28" s="140" t="s">
+      <c r="X28" s="128"/>
+      <c r="Y28" s="129"/>
+      <c r="Z28" s="132" t="s">
         <v>255</v>
       </c>
-      <c r="AF28" s="140" t="s">
+      <c r="AA28" s="132"/>
+      <c r="AB28" s="133" t="s">
         <v>256</v>
+      </c>
+      <c r="AD28" s="134" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE28" s="135" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF28" s="135" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="26" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="61" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F29" s="61" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J29" s="8"/>
-      <c r="R29" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="S29" s="95" t="s">
-        <v>262</v>
+      <c r="R29" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="S29" s="93" t="s">
+        <v>265</v>
       </c>
       <c r="T29" s="38" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="U29" s="12"/>
-      <c r="V29" s="131"/>
-      <c r="W29" s="132" t="s">
+      <c r="V29" s="126"/>
+      <c r="W29" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="X29" s="133"/>
-      <c r="Y29" s="134"/>
-      <c r="Z29" s="141" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA29" s="141"/>
-      <c r="AB29" s="138" t="s">
-        <v>265</v>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="129"/>
+      <c r="Z29" s="127" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA29" s="127"/>
+      <c r="AB29" s="133" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="26" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="61" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="F30" s="142"/>
-      <c r="H30" s="143" t="s">
-        <v>269</v>
-      </c>
-      <c r="I30" s="143"/>
+        <v>271</v>
+      </c>
+      <c r="F30" s="136"/>
+      <c r="H30" s="137" t="s">
+        <v>272</v>
+      </c>
+      <c r="I30" s="137"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="144" t="s">
-        <v>270</v>
-      </c>
-      <c r="L30" s="144"/>
-      <c r="M30" s="144"/>
-      <c r="N30" s="144"/>
-      <c r="O30" s="144"/>
-      <c r="R30" s="94" t="s">
-        <v>271</v>
+      <c r="K30" s="138" t="s">
+        <v>273</v>
+      </c>
+      <c r="L30" s="138"/>
+      <c r="M30" s="138"/>
+      <c r="N30" s="138"/>
+      <c r="O30" s="138"/>
+      <c r="R30" s="41" t="s">
+        <v>274</v>
       </c>
       <c r="S30" s="38" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="T30" s="38" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="U30" s="12"/>
-      <c r="V30" s="131"/>
-      <c r="W30" s="132" t="s">
-        <v>76</v>
-      </c>
-      <c r="X30" s="133"/>
-      <c r="Y30" s="134"/>
-      <c r="Z30" s="145" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA30" s="145"/>
-      <c r="AB30" s="130"/>
+      <c r="V30" s="126"/>
+      <c r="W30" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="X30" s="128"/>
+      <c r="Y30" s="129"/>
+      <c r="Z30" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA30" s="139"/>
+      <c r="AB30" s="125"/>
       <c r="AC30" s="12"/>
-      <c r="AD30" s="146" t="s">
-        <v>275</v>
-      </c>
-      <c r="AE30" s="146"/>
+      <c r="AD30" s="140" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE30" s="140"/>
     </row>
     <row r="31" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="26" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B31" s="35"/>
       <c r="C31" s="61" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="H31" s="147" t="s">
-        <v>280</v>
-      </c>
-      <c r="I31" s="148" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="H31" s="141" t="s">
+        <v>283</v>
+      </c>
+      <c r="I31" s="142" t="s">
+        <v>284</v>
       </c>
       <c r="J31" s="8"/>
-      <c r="K31" s="149" t="s">
-        <v>282</v>
-      </c>
-      <c r="L31" s="150" t="s">
-        <v>283</v>
-      </c>
-      <c r="M31" s="150"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="152" t="s">
-        <v>284</v>
-      </c>
-      <c r="R31" s="94" t="s">
+      <c r="K31" s="143" t="s">
         <v>285</v>
       </c>
+      <c r="L31" s="144" t="s">
+        <v>286</v>
+      </c>
+      <c r="M31" s="144"/>
+      <c r="N31" s="145"/>
+      <c r="O31" s="145" t="s">
+        <v>287</v>
+      </c>
+      <c r="R31" s="41" t="s">
+        <v>288</v>
+      </c>
       <c r="S31" s="38" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="T31" s="38" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="U31" s="12"/>
-      <c r="V31" s="131"/>
-      <c r="W31" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="X31" s="133"/>
-      <c r="Y31" s="134"/>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="129" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB31" s="130"/>
+      <c r="V31" s="126"/>
+      <c r="W31" s="127" t="s">
+        <v>89</v>
+      </c>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="129"/>
+      <c r="Z31" s="123"/>
+      <c r="AA31" s="124" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB31" s="125"/>
       <c r="AC31" s="12"/>
-      <c r="AD31" s="153" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE31" s="154" t="s">
-        <v>290</v>
+      <c r="AD31" s="146" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE31" s="147" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="26" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="61" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="H32" s="147" t="s">
-        <v>295</v>
-      </c>
-      <c r="I32" s="155" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="H32" s="141" t="s">
+        <v>298</v>
+      </c>
+      <c r="I32" s="148" t="s">
+        <v>299</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="26"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="156"/>
-      <c r="O32" s="157"/>
-      <c r="R32" s="94" t="s">
-        <v>297</v>
-      </c>
-      <c r="S32" s="95" t="s">
-        <v>298</v>
+      <c r="L32" s="143"/>
+      <c r="M32" s="149"/>
+      <c r="N32" s="149"/>
+      <c r="O32" s="150"/>
+      <c r="R32" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="S32" s="93" t="s">
+        <v>301</v>
       </c>
       <c r="T32" s="38" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="U32" s="12"/>
-      <c r="V32" s="131"/>
-      <c r="W32" s="132" t="s">
-        <v>98</v>
-      </c>
-      <c r="X32" s="133"/>
-      <c r="Y32" s="134"/>
-      <c r="Z32" s="158"/>
-      <c r="AA32" s="129" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB32" s="138" t="s">
-        <v>301</v>
+      <c r="V32" s="126"/>
+      <c r="W32" s="127" t="s">
+        <v>99</v>
+      </c>
+      <c r="X32" s="128"/>
+      <c r="Y32" s="129"/>
+      <c r="Z32" s="151"/>
+      <c r="AA32" s="124" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB32" s="133" t="s">
+        <v>304</v>
       </c>
       <c r="AC32" s="12"/>
-      <c r="AD32" s="159" t="s">
-        <v>302</v>
-      </c>
-      <c r="AE32" s="160"/>
+      <c r="AD32" s="152" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE32" s="153"/>
     </row>
     <row r="33" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="61" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="H33" s="147" t="s">
-        <v>307</v>
-      </c>
-      <c r="I33" s="161" t="s">
-        <v>308</v>
+        <v>309</v>
+      </c>
+      <c r="H33" s="141" t="s">
+        <v>310</v>
+      </c>
+      <c r="I33" s="154" t="s">
+        <v>311</v>
       </c>
       <c r="J33" s="8"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="156"/>
-      <c r="O33" s="157"/>
-      <c r="R33" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="S33" s="162"/>
-      <c r="T33" s="163"/>
+      <c r="K33" s="143"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="149"/>
+      <c r="O33" s="150"/>
+      <c r="R33" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="S33" s="155"/>
+      <c r="T33" s="156"/>
       <c r="U33" s="12"/>
-      <c r="V33" s="131"/>
-      <c r="W33" s="132" t="s">
-        <v>107</v>
-      </c>
-      <c r="X33" s="133"/>
-      <c r="Y33" s="134"/>
-      <c r="Z33" s="158"/>
-      <c r="AA33" s="129" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB33" s="130"/>
+      <c r="V33" s="126"/>
+      <c r="W33" s="127" t="s">
+        <v>109</v>
+      </c>
+      <c r="X33" s="128"/>
+      <c r="Y33" s="129"/>
+      <c r="Z33" s="151"/>
+      <c r="AA33" s="124" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB33" s="125"/>
       <c r="AC33" s="12"/>
-      <c r="AD33" s="159" t="s">
-        <v>310</v>
-      </c>
-      <c r="AE33" s="160"/>
+      <c r="AD33" s="152" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE33" s="153"/>
     </row>
     <row r="34" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="61" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="H34" s="147" t="s">
-        <v>315</v>
-      </c>
-      <c r="I34" s="155" t="s">
-        <v>316</v>
+        <v>317</v>
+      </c>
+      <c r="H34" s="141" t="s">
+        <v>318</v>
+      </c>
+      <c r="I34" s="148" t="s">
+        <v>319</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="26"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="156"/>
-      <c r="N34" s="156"/>
-      <c r="O34" s="157"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="149"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="150"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
-      <c r="V34" s="164"/>
-      <c r="W34" s="165" t="s">
-        <v>317</v>
-      </c>
-      <c r="X34" s="133"/>
-      <c r="Y34" s="134"/>
-      <c r="Z34" s="166"/>
-      <c r="AA34" s="167" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB34" s="168"/>
+      <c r="V34" s="157"/>
+      <c r="W34" s="158" t="s">
+        <v>320</v>
+      </c>
+      <c r="X34" s="128"/>
+      <c r="Y34" s="129"/>
+      <c r="Z34" s="159"/>
+      <c r="AA34" s="160" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB34" s="161"/>
       <c r="AC34" s="12"/>
-      <c r="AD34" s="159" t="s">
-        <v>319</v>
-      </c>
-      <c r="AE34" s="160"/>
+      <c r="AD34" s="152" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE34" s="153"/>
     </row>
     <row r="35" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B35" s="35"/>
       <c r="C35" s="61" t="s">
-        <v>321</v>
-      </c>
-      <c r="E35" s="169" t="s">
-        <v>322</v>
-      </c>
-      <c r="F35" s="170"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="171"/>
+        <v>324</v>
+      </c>
+      <c r="E35" s="162" t="s">
+        <v>325</v>
+      </c>
+      <c r="F35" s="163" t="s">
+        <v>326</v>
+      </c>
+      <c r="H35" s="141"/>
+      <c r="I35" s="164"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="156"/>
-      <c r="N35" s="156"/>
-      <c r="O35" s="157"/>
-      <c r="V35" s="172"/>
-      <c r="W35" s="173" t="s">
-        <v>323</v>
-      </c>
-      <c r="X35" s="133"/>
-      <c r="Y35" s="174"/>
-      <c r="Z35" s="175" t="s">
-        <v>324</v>
-      </c>
-      <c r="AA35" s="175"/>
-      <c r="AB35" s="175"/>
+      <c r="K35" s="143"/>
+      <c r="L35" s="143"/>
+      <c r="M35" s="149"/>
+      <c r="N35" s="149"/>
+      <c r="O35" s="150"/>
+      <c r="V35" s="165"/>
+      <c r="W35" s="166" t="s">
+        <v>327</v>
+      </c>
+      <c r="X35" s="128"/>
+      <c r="Y35" s="167"/>
+      <c r="Z35" s="168" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA35" s="168"/>
+      <c r="AB35" s="168"/>
       <c r="AC35" s="12"/>
-      <c r="AD35" s="176" t="s">
-        <v>325</v>
-      </c>
-      <c r="AE35" s="160"/>
+      <c r="AD35" s="169" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE35" s="153"/>
     </row>
     <row r="36" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B36" s="35"/>
       <c r="C36" s="61" t="s">
-        <v>327</v>
-      </c>
-      <c r="E36" s="177" t="s">
-        <v>328</v>
-      </c>
-      <c r="F36" s="178"/>
-      <c r="H36" s="147" t="s">
-        <v>329</v>
-      </c>
-      <c r="I36" s="179"/>
+        <v>331</v>
+      </c>
+      <c r="E36" s="141" t="s">
+        <v>332</v>
+      </c>
+      <c r="F36" s="170"/>
+      <c r="H36" s="141" t="s">
+        <v>333</v>
+      </c>
+      <c r="I36" s="170" t="s">
+        <v>334</v>
+      </c>
       <c r="J36" s="8"/>
       <c r="K36" s="44"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="156"/>
-      <c r="N36" s="156"/>
-      <c r="O36" s="157"/>
-      <c r="R36" s="87" t="s">
-        <v>330</v>
+      <c r="L36" s="143"/>
+      <c r="M36" s="149"/>
+      <c r="N36" s="149"/>
+      <c r="O36" s="150"/>
+      <c r="R36" s="86" t="s">
+        <v>335</v>
       </c>
       <c r="S36" s="32" t="s">
         <v>11</v>
@@ -5980,82 +5943,84 @@
       <c r="T36" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="V36" s="180"/>
-      <c r="W36" s="173" t="s">
-        <v>331</v>
-      </c>
-      <c r="X36" s="133"/>
-      <c r="Y36" s="174"/>
-      <c r="Z36" s="181" t="s">
-        <v>332</v>
-      </c>
-      <c r="AA36" s="181"/>
-      <c r="AB36" s="182"/>
+      <c r="V36" s="126"/>
+      <c r="W36" s="166" t="s">
+        <v>336</v>
+      </c>
+      <c r="X36" s="128"/>
+      <c r="Y36" s="167"/>
+      <c r="Z36" s="171" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA36" s="171"/>
+      <c r="AB36" s="172"/>
       <c r="AC36" s="12"/>
-      <c r="AD36" s="183" t="s">
-        <v>333</v>
-      </c>
-      <c r="AE36" s="184"/>
+      <c r="AD36" s="173" t="s">
+        <v>338</v>
+      </c>
+      <c r="AE36" s="174"/>
     </row>
     <row r="37" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B37" s="35"/>
       <c r="C37" s="61" t="s">
-        <v>335</v>
-      </c>
-      <c r="E37" s="185" t="s">
-        <v>336</v>
-      </c>
-      <c r="F37" s="186"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="187"/>
-      <c r="K37" s="188"/>
-      <c r="L37" s="188"/>
-      <c r="M37" s="189"/>
-      <c r="O37" s="157"/>
-      <c r="R37" s="100" t="s">
-        <v>337</v>
-      </c>
-      <c r="S37" s="112"/>
-      <c r="T37" s="112"/>
-      <c r="V37" s="190"/>
-      <c r="W37" s="191" t="s">
-        <v>338</v>
-      </c>
-      <c r="X37" s="192" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y37" s="193"/>
-      <c r="Z37" s="194" t="s">
         <v>340</v>
       </c>
-      <c r="AA37" s="194"/>
-      <c r="AB37" s="195"/>
+      <c r="E37" s="175" t="s">
+        <v>341</v>
+      </c>
+      <c r="F37" s="176"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="177"/>
+      <c r="K37" s="178"/>
+      <c r="L37" s="178"/>
+      <c r="M37" s="179"/>
+      <c r="O37" s="150"/>
+      <c r="R37" s="98" t="s">
+        <v>342</v>
+      </c>
+      <c r="S37" s="108"/>
+      <c r="T37" s="108"/>
+      <c r="V37" s="180"/>
+      <c r="W37" s="181" t="s">
+        <v>343</v>
+      </c>
+      <c r="X37" s="182" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y37" s="183"/>
+      <c r="Z37" s="184" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA37" s="184"/>
+      <c r="AB37" s="185"/>
       <c r="AC37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B38" s="35"/>
       <c r="C38" s="61" t="s">
-        <v>342</v>
-      </c>
-      <c r="E38" s="196" t="s">
-        <v>343</v>
-      </c>
-      <c r="F38" s="170"/>
-      <c r="H38" s="197" t="s">
-        <v>344</v>
-      </c>
-      <c r="I38" s="198"/>
-      <c r="P38" s="199" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q38" s="199" t="s">
-        <v>346</v>
+        <v>347</v>
+      </c>
+      <c r="E38" s="186" t="s">
+        <v>348</v>
+      </c>
+      <c r="F38" s="163" t="s">
+        <v>349</v>
+      </c>
+      <c r="H38" s="162" t="s">
+        <v>350</v>
+      </c>
+      <c r="I38" s="187"/>
+      <c r="P38" s="188" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q38" s="188" t="s">
+        <v>352</v>
       </c>
       <c r="R38" s="12"/>
       <c r="S38" s="12"/>
@@ -6074,496 +6039,498 @@
     </row>
     <row r="39" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="26" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B39" s="35"/>
       <c r="C39" s="61" t="s">
-        <v>348</v>
-      </c>
-      <c r="E39" s="200" t="s">
-        <v>349</v>
-      </c>
-      <c r="F39" s="178"/>
-      <c r="H39" s="147" t="s">
-        <v>350</v>
-      </c>
-      <c r="I39" s="201"/>
-      <c r="K39" s="202" t="s">
-        <v>351</v>
-      </c>
-      <c r="L39" s="203" t="s">
-        <v>352</v>
-      </c>
-      <c r="M39" s="203" t="s">
-        <v>353</v>
-      </c>
-      <c r="N39" s="203"/>
-      <c r="O39" s="204" t="n">
+        <v>354</v>
+      </c>
+      <c r="E39" s="189" t="s">
+        <v>355</v>
+      </c>
+      <c r="F39" s="170"/>
+      <c r="H39" s="141" t="s">
+        <v>356</v>
+      </c>
+      <c r="I39" s="190"/>
+      <c r="K39" s="191" t="s">
+        <v>357</v>
+      </c>
+      <c r="L39" s="192" t="s">
+        <v>358</v>
+      </c>
+      <c r="M39" s="192" t="s">
+        <v>359</v>
+      </c>
+      <c r="N39" s="192"/>
+      <c r="O39" s="193" t="n">
         <v>24</v>
       </c>
-      <c r="R39" s="205" t="s">
-        <v>354</v>
-      </c>
-      <c r="S39" s="206"/>
-      <c r="T39" s="206"/>
-      <c r="U39" s="206"/>
-      <c r="V39" s="206"/>
-      <c r="W39" s="206"/>
-      <c r="X39" s="207"/>
-      <c r="Y39" s="208"/>
-      <c r="Z39" s="209"/>
-      <c r="AA39" s="206"/>
-      <c r="AB39" s="206"/>
-      <c r="AC39" s="206"/>
-      <c r="AD39" s="206"/>
-      <c r="AE39" s="206"/>
-      <c r="AF39" s="210"/>
+      <c r="R39" s="194" t="s">
+        <v>360</v>
+      </c>
+      <c r="S39" s="195"/>
+      <c r="T39" s="195"/>
+      <c r="U39" s="195"/>
+      <c r="V39" s="195"/>
+      <c r="W39" s="195"/>
+      <c r="X39" s="196"/>
+      <c r="Y39" s="197"/>
+      <c r="Z39" s="198"/>
+      <c r="AA39" s="195"/>
+      <c r="AB39" s="195"/>
+      <c r="AC39" s="195"/>
+      <c r="AD39" s="195"/>
+      <c r="AE39" s="195"/>
+      <c r="AF39" s="199"/>
     </row>
     <row r="40" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="44" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B40" s="45"/>
       <c r="C40" s="61" t="s">
-        <v>356</v>
-      </c>
-      <c r="E40" s="211" t="s">
-        <v>357</v>
-      </c>
-      <c r="F40" s="186"/>
-      <c r="H40" s="212" t="s">
-        <v>358</v>
-      </c>
-      <c r="I40" s="213"/>
-      <c r="K40" s="214"/>
-      <c r="L40" s="215" t="s">
-        <v>359</v>
-      </c>
-      <c r="M40" s="215" t="s">
-        <v>360</v>
-      </c>
-      <c r="N40" s="216"/>
-      <c r="O40" s="217"/>
+        <v>362</v>
+      </c>
+      <c r="E40" s="200" t="s">
+        <v>363</v>
+      </c>
+      <c r="F40" s="176"/>
+      <c r="H40" s="175" t="s">
+        <v>364</v>
+      </c>
+      <c r="I40" s="201"/>
+      <c r="K40" s="202"/>
+      <c r="L40" s="203" t="s">
+        <v>365</v>
+      </c>
+      <c r="M40" s="203" t="s">
+        <v>366</v>
+      </c>
+      <c r="N40" s="204"/>
+      <c r="O40" s="205" t="s">
+        <v>367</v>
+      </c>
       <c r="P40" s="7"/>
-      <c r="R40" s="218"/>
-      <c r="S40" s="219"/>
-      <c r="T40" s="219"/>
-      <c r="U40" s="219"/>
-      <c r="V40" s="219"/>
-      <c r="W40" s="219"/>
-      <c r="X40" s="220"/>
-      <c r="Y40" s="219"/>
-      <c r="Z40" s="218"/>
-      <c r="AA40" s="219"/>
-      <c r="AB40" s="219"/>
-      <c r="AC40" s="219"/>
-      <c r="AD40" s="219"/>
-      <c r="AE40" s="219"/>
-      <c r="AF40" s="220"/>
+      <c r="R40" s="206"/>
+      <c r="S40" s="207"/>
+      <c r="T40" s="207"/>
+      <c r="U40" s="207"/>
+      <c r="V40" s="207"/>
+      <c r="W40" s="207"/>
+      <c r="X40" s="208"/>
+      <c r="Y40" s="207"/>
+      <c r="Z40" s="206"/>
+      <c r="AA40" s="207"/>
+      <c r="AB40" s="207"/>
+      <c r="AC40" s="207"/>
+      <c r="AD40" s="207"/>
+      <c r="AE40" s="207"/>
+      <c r="AF40" s="208"/>
     </row>
     <row r="41" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C41" s="221"/>
-      <c r="E41" s="222" t="s">
-        <v>124</v>
+      <c r="C41" s="209"/>
+      <c r="E41" s="210" t="s">
+        <v>126</v>
       </c>
       <c r="F41" s="7"/>
       <c r="P41" s="7"/>
-      <c r="R41" s="223"/>
-      <c r="S41" s="224"/>
-      <c r="T41" s="224"/>
-      <c r="U41" s="224"/>
-      <c r="V41" s="224"/>
-      <c r="W41" s="224"/>
-      <c r="X41" s="225"/>
-      <c r="Y41" s="224"/>
-      <c r="Z41" s="223"/>
-      <c r="AA41" s="224"/>
-      <c r="AB41" s="224"/>
-      <c r="AC41" s="224"/>
-      <c r="AD41" s="224"/>
-      <c r="AE41" s="224"/>
-      <c r="AF41" s="225"/>
+      <c r="R41" s="211"/>
+      <c r="S41" s="212"/>
+      <c r="T41" s="212"/>
+      <c r="U41" s="212"/>
+      <c r="V41" s="212"/>
+      <c r="W41" s="212"/>
+      <c r="X41" s="213"/>
+      <c r="Y41" s="212"/>
+      <c r="Z41" s="211"/>
+      <c r="AA41" s="212"/>
+      <c r="AB41" s="212"/>
+      <c r="AC41" s="212"/>
+      <c r="AD41" s="212"/>
+      <c r="AE41" s="212"/>
+      <c r="AF41" s="213"/>
     </row>
     <row r="42" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
       <c r="E42" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="F42" s="226"/>
-      <c r="G42" s="226"/>
-      <c r="H42" s="226"/>
-      <c r="I42" s="226"/>
-      <c r="J42" s="226"/>
-      <c r="K42" s="226"/>
-      <c r="L42" s="226"/>
-      <c r="M42" s="226"/>
-      <c r="N42" s="226"/>
-      <c r="O42" s="227"/>
+        <v>360</v>
+      </c>
+      <c r="F42" s="214"/>
+      <c r="G42" s="214"/>
+      <c r="H42" s="214"/>
+      <c r="I42" s="214"/>
+      <c r="J42" s="214"/>
+      <c r="K42" s="214"/>
+      <c r="L42" s="214"/>
+      <c r="M42" s="214"/>
+      <c r="N42" s="214"/>
+      <c r="O42" s="215"/>
       <c r="P42" s="7"/>
-      <c r="R42" s="223"/>
-      <c r="S42" s="224"/>
-      <c r="T42" s="224"/>
-      <c r="U42" s="224"/>
-      <c r="V42" s="224"/>
-      <c r="W42" s="224"/>
-      <c r="X42" s="225"/>
-      <c r="Y42" s="224"/>
-      <c r="Z42" s="223"/>
-      <c r="AA42" s="224"/>
-      <c r="AB42" s="224"/>
-      <c r="AC42" s="224"/>
-      <c r="AD42" s="224"/>
-      <c r="AE42" s="224"/>
-      <c r="AF42" s="225"/>
+      <c r="R42" s="211"/>
+      <c r="S42" s="212"/>
+      <c r="T42" s="212"/>
+      <c r="U42" s="212"/>
+      <c r="V42" s="212"/>
+      <c r="W42" s="212"/>
+      <c r="X42" s="213"/>
+      <c r="Y42" s="212"/>
+      <c r="Z42" s="211"/>
+      <c r="AA42" s="212"/>
+      <c r="AB42" s="212"/>
+      <c r="AC42" s="212"/>
+      <c r="AD42" s="212"/>
+      <c r="AE42" s="212"/>
+      <c r="AF42" s="213"/>
     </row>
     <row r="43" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="228" t="s">
-        <v>362</v>
-      </c>
-      <c r="B43" s="229"/>
-      <c r="C43" s="230" t="s">
-        <v>363</v>
+      <c r="A43" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="216" t="s">
+        <v>370</v>
       </c>
       <c r="D43" s="7"/>
-      <c r="E43" s="231" t="s">
-        <v>364</v>
-      </c>
-      <c r="F43" s="231"/>
-      <c r="G43" s="231"/>
-      <c r="H43" s="231"/>
-      <c r="I43" s="231"/>
-      <c r="J43" s="231"/>
-      <c r="K43" s="231"/>
-      <c r="L43" s="231"/>
-      <c r="M43" s="231"/>
-      <c r="N43" s="231"/>
-      <c r="O43" s="231"/>
+      <c r="E43" s="217" t="s">
+        <v>371</v>
+      </c>
+      <c r="F43" s="217"/>
+      <c r="G43" s="217"/>
+      <c r="H43" s="217"/>
+      <c r="I43" s="217"/>
+      <c r="J43" s="217"/>
+      <c r="K43" s="217"/>
+      <c r="L43" s="217"/>
+      <c r="M43" s="217"/>
+      <c r="N43" s="217"/>
+      <c r="O43" s="217"/>
       <c r="P43" s="7"/>
-      <c r="R43" s="223"/>
-      <c r="S43" s="224"/>
-      <c r="T43" s="224"/>
-      <c r="U43" s="224"/>
-      <c r="V43" s="224"/>
-      <c r="W43" s="224"/>
-      <c r="X43" s="225"/>
-      <c r="Y43" s="224"/>
-      <c r="Z43" s="223"/>
-      <c r="AA43" s="224"/>
-      <c r="AB43" s="224"/>
-      <c r="AC43" s="224"/>
-      <c r="AD43" s="224"/>
-      <c r="AE43" s="224"/>
-      <c r="AF43" s="225"/>
+      <c r="R43" s="211"/>
+      <c r="S43" s="212"/>
+      <c r="T43" s="212"/>
+      <c r="U43" s="212"/>
+      <c r="V43" s="212"/>
+      <c r="W43" s="212"/>
+      <c r="X43" s="213"/>
+      <c r="Y43" s="212"/>
+      <c r="Z43" s="211"/>
+      <c r="AA43" s="212"/>
+      <c r="AB43" s="212"/>
+      <c r="AC43" s="212"/>
+      <c r="AD43" s="212"/>
+      <c r="AE43" s="212"/>
+      <c r="AF43" s="213"/>
     </row>
     <row r="44" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="62" t="s">
-        <v>365</v>
-      </c>
-      <c r="B44" s="232"/>
-      <c r="C44" s="230" t="s">
-        <v>366</v>
+      <c r="A44" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="B44" s="35"/>
+      <c r="C44" s="216" t="s">
+        <v>373</v>
       </c>
       <c r="D44" s="7"/>
-      <c r="E44" s="231"/>
-      <c r="F44" s="231"/>
-      <c r="G44" s="231"/>
-      <c r="H44" s="231"/>
-      <c r="I44" s="231"/>
-      <c r="J44" s="231"/>
-      <c r="K44" s="231"/>
-      <c r="L44" s="231"/>
-      <c r="M44" s="231"/>
-      <c r="N44" s="231"/>
-      <c r="O44" s="231"/>
+      <c r="E44" s="217"/>
+      <c r="F44" s="217"/>
+      <c r="G44" s="217"/>
+      <c r="H44" s="217"/>
+      <c r="I44" s="217"/>
+      <c r="J44" s="217"/>
+      <c r="K44" s="217"/>
+      <c r="L44" s="217"/>
+      <c r="M44" s="217"/>
+      <c r="N44" s="217"/>
+      <c r="O44" s="217"/>
       <c r="P44" s="7"/>
-      <c r="R44" s="223"/>
-      <c r="S44" s="224"/>
-      <c r="T44" s="224"/>
-      <c r="U44" s="224"/>
-      <c r="V44" s="224"/>
-      <c r="W44" s="224"/>
-      <c r="X44" s="225"/>
-      <c r="Y44" s="224"/>
-      <c r="Z44" s="223"/>
-      <c r="AA44" s="224"/>
-      <c r="AB44" s="224"/>
-      <c r="AC44" s="224"/>
-      <c r="AD44" s="224"/>
-      <c r="AE44" s="224"/>
-      <c r="AF44" s="225"/>
+      <c r="R44" s="211"/>
+      <c r="S44" s="212"/>
+      <c r="T44" s="212"/>
+      <c r="U44" s="212"/>
+      <c r="V44" s="212"/>
+      <c r="W44" s="212"/>
+      <c r="X44" s="213"/>
+      <c r="Y44" s="212"/>
+      <c r="Z44" s="211"/>
+      <c r="AA44" s="212"/>
+      <c r="AB44" s="212"/>
+      <c r="AC44" s="212"/>
+      <c r="AD44" s="212"/>
+      <c r="AE44" s="212"/>
+      <c r="AF44" s="213"/>
     </row>
     <row r="45" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="B45" s="232"/>
-      <c r="C45" s="230" t="s">
-        <v>368</v>
+      <c r="A45" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B45" s="35"/>
+      <c r="C45" s="216" t="s">
+        <v>375</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="231"/>
-      <c r="F45" s="231"/>
-      <c r="G45" s="231"/>
-      <c r="H45" s="231"/>
-      <c r="I45" s="231"/>
-      <c r="J45" s="231"/>
-      <c r="K45" s="231"/>
-      <c r="L45" s="231"/>
-      <c r="M45" s="231"/>
-      <c r="N45" s="231"/>
-      <c r="O45" s="231"/>
+      <c r="E45" s="217"/>
+      <c r="F45" s="217"/>
+      <c r="G45" s="217"/>
+      <c r="H45" s="217"/>
+      <c r="I45" s="217"/>
+      <c r="J45" s="217"/>
+      <c r="K45" s="217"/>
+      <c r="L45" s="217"/>
+      <c r="M45" s="217"/>
+      <c r="N45" s="217"/>
+      <c r="O45" s="217"/>
       <c r="P45" s="7"/>
-      <c r="R45" s="223"/>
-      <c r="S45" s="224"/>
-      <c r="T45" s="224"/>
-      <c r="U45" s="224"/>
-      <c r="V45" s="224"/>
-      <c r="W45" s="224"/>
-      <c r="X45" s="225"/>
-      <c r="Y45" s="224"/>
-      <c r="Z45" s="223"/>
-      <c r="AA45" s="224"/>
-      <c r="AB45" s="224"/>
-      <c r="AC45" s="224"/>
-      <c r="AD45" s="224"/>
-      <c r="AE45" s="224"/>
-      <c r="AF45" s="225"/>
+      <c r="R45" s="211"/>
+      <c r="S45" s="212"/>
+      <c r="T45" s="212"/>
+      <c r="U45" s="212"/>
+      <c r="V45" s="212"/>
+      <c r="W45" s="212"/>
+      <c r="X45" s="213"/>
+      <c r="Y45" s="212"/>
+      <c r="Z45" s="211"/>
+      <c r="AA45" s="212"/>
+      <c r="AB45" s="212"/>
+      <c r="AC45" s="212"/>
+      <c r="AD45" s="212"/>
+      <c r="AE45" s="212"/>
+      <c r="AF45" s="213"/>
     </row>
     <row r="46" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="B46" s="232"/>
-      <c r="C46" s="230" t="s">
-        <v>370</v>
+      <c r="A46" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="B46" s="35"/>
+      <c r="C46" s="216" t="s">
+        <v>377</v>
       </c>
       <c r="D46" s="7"/>
-      <c r="E46" s="231"/>
-      <c r="F46" s="231"/>
-      <c r="G46" s="231"/>
-      <c r="H46" s="231"/>
-      <c r="I46" s="231"/>
-      <c r="J46" s="231"/>
-      <c r="K46" s="231"/>
-      <c r="L46" s="231"/>
-      <c r="M46" s="231"/>
-      <c r="N46" s="231"/>
-      <c r="O46" s="231"/>
+      <c r="E46" s="217"/>
+      <c r="F46" s="217"/>
+      <c r="G46" s="217"/>
+      <c r="H46" s="217"/>
+      <c r="I46" s="217"/>
+      <c r="J46" s="217"/>
+      <c r="K46" s="217"/>
+      <c r="L46" s="217"/>
+      <c r="M46" s="217"/>
+      <c r="N46" s="217"/>
+      <c r="O46" s="217"/>
       <c r="P46" s="7"/>
-      <c r="R46" s="223"/>
-      <c r="S46" s="224"/>
-      <c r="T46" s="224"/>
-      <c r="U46" s="224"/>
-      <c r="V46" s="224"/>
-      <c r="W46" s="224"/>
-      <c r="X46" s="225"/>
-      <c r="Y46" s="224"/>
-      <c r="Z46" s="223"/>
-      <c r="AA46" s="224"/>
-      <c r="AB46" s="224"/>
-      <c r="AC46" s="224"/>
-      <c r="AD46" s="224"/>
-      <c r="AE46" s="224"/>
-      <c r="AF46" s="225"/>
+      <c r="R46" s="211"/>
+      <c r="S46" s="212"/>
+      <c r="T46" s="212"/>
+      <c r="U46" s="212"/>
+      <c r="V46" s="212"/>
+      <c r="W46" s="212"/>
+      <c r="X46" s="213"/>
+      <c r="Y46" s="212"/>
+      <c r="Z46" s="211"/>
+      <c r="AA46" s="212"/>
+      <c r="AB46" s="212"/>
+      <c r="AC46" s="212"/>
+      <c r="AD46" s="212"/>
+      <c r="AE46" s="212"/>
+      <c r="AF46" s="213"/>
     </row>
     <row r="47" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="62" t="s">
-        <v>371</v>
-      </c>
-      <c r="B47" s="232"/>
-      <c r="C47" s="230" t="s">
-        <v>372</v>
+      <c r="A47" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B47" s="35"/>
+      <c r="C47" s="216" t="s">
+        <v>379</v>
       </c>
       <c r="D47" s="7"/>
-      <c r="E47" s="231"/>
-      <c r="F47" s="231"/>
-      <c r="G47" s="231"/>
-      <c r="H47" s="231"/>
-      <c r="I47" s="231"/>
-      <c r="J47" s="231"/>
-      <c r="K47" s="231"/>
-      <c r="L47" s="231"/>
-      <c r="M47" s="231"/>
-      <c r="N47" s="231"/>
-      <c r="O47" s="231"/>
+      <c r="E47" s="217"/>
+      <c r="F47" s="217"/>
+      <c r="G47" s="217"/>
+      <c r="H47" s="217"/>
+      <c r="I47" s="217"/>
+      <c r="J47" s="217"/>
+      <c r="K47" s="217"/>
+      <c r="L47" s="217"/>
+      <c r="M47" s="217"/>
+      <c r="N47" s="217"/>
+      <c r="O47" s="217"/>
       <c r="P47" s="7"/>
-      <c r="R47" s="223"/>
-      <c r="S47" s="224"/>
-      <c r="T47" s="224"/>
-      <c r="U47" s="224"/>
-      <c r="V47" s="224"/>
-      <c r="W47" s="224"/>
-      <c r="X47" s="225"/>
-      <c r="Y47" s="224"/>
-      <c r="Z47" s="223"/>
-      <c r="AA47" s="224"/>
-      <c r="AB47" s="224"/>
-      <c r="AC47" s="224"/>
-      <c r="AD47" s="224"/>
-      <c r="AE47" s="224"/>
-      <c r="AF47" s="225"/>
+      <c r="R47" s="211"/>
+      <c r="S47" s="212"/>
+      <c r="T47" s="212"/>
+      <c r="U47" s="212"/>
+      <c r="V47" s="212"/>
+      <c r="W47" s="212"/>
+      <c r="X47" s="213"/>
+      <c r="Y47" s="212"/>
+      <c r="Z47" s="211"/>
+      <c r="AA47" s="212"/>
+      <c r="AB47" s="212"/>
+      <c r="AC47" s="212"/>
+      <c r="AD47" s="212"/>
+      <c r="AE47" s="212"/>
+      <c r="AF47" s="213"/>
     </row>
     <row r="48" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="233" t="s">
-        <v>373</v>
-      </c>
-      <c r="B48" s="234"/>
-      <c r="C48" s="230" t="s">
-        <v>374</v>
+      <c r="A48" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="B48" s="45"/>
+      <c r="C48" s="216" t="s">
+        <v>381</v>
       </c>
       <c r="D48" s="7"/>
-      <c r="E48" s="231"/>
-      <c r="F48" s="231"/>
-      <c r="G48" s="231"/>
-      <c r="H48" s="231"/>
-      <c r="I48" s="231"/>
-      <c r="J48" s="231"/>
-      <c r="K48" s="231"/>
-      <c r="L48" s="231"/>
-      <c r="M48" s="231"/>
-      <c r="N48" s="231"/>
-      <c r="O48" s="231"/>
+      <c r="E48" s="217"/>
+      <c r="F48" s="217"/>
+      <c r="G48" s="217"/>
+      <c r="H48" s="217"/>
+      <c r="I48" s="217"/>
+      <c r="J48" s="217"/>
+      <c r="K48" s="217"/>
+      <c r="L48" s="217"/>
+      <c r="M48" s="217"/>
+      <c r="N48" s="217"/>
+      <c r="O48" s="217"/>
       <c r="P48" s="7"/>
-      <c r="R48" s="223"/>
-      <c r="S48" s="224"/>
-      <c r="T48" s="224"/>
-      <c r="U48" s="224"/>
-      <c r="V48" s="224"/>
-      <c r="W48" s="224"/>
-      <c r="X48" s="225"/>
-      <c r="Y48" s="224"/>
-      <c r="Z48" s="223"/>
-      <c r="AA48" s="224"/>
-      <c r="AB48" s="224"/>
-      <c r="AC48" s="224"/>
-      <c r="AD48" s="224"/>
-      <c r="AE48" s="224"/>
-      <c r="AF48" s="225"/>
+      <c r="R48" s="211"/>
+      <c r="S48" s="212"/>
+      <c r="T48" s="212"/>
+      <c r="U48" s="212"/>
+      <c r="V48" s="212"/>
+      <c r="W48" s="212"/>
+      <c r="X48" s="213"/>
+      <c r="Y48" s="212"/>
+      <c r="Z48" s="211"/>
+      <c r="AA48" s="212"/>
+      <c r="AB48" s="212"/>
+      <c r="AC48" s="212"/>
+      <c r="AD48" s="212"/>
+      <c r="AE48" s="212"/>
+      <c r="AF48" s="213"/>
     </row>
     <row r="49" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C49" s="221"/>
+      <c r="C49" s="209"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="231"/>
-      <c r="F49" s="231"/>
-      <c r="G49" s="231"/>
-      <c r="H49" s="231"/>
-      <c r="I49" s="231"/>
-      <c r="J49" s="231"/>
-      <c r="K49" s="231"/>
-      <c r="L49" s="231"/>
-      <c r="M49" s="231"/>
-      <c r="N49" s="231"/>
-      <c r="O49" s="231"/>
+      <c r="E49" s="217"/>
+      <c r="F49" s="217"/>
+      <c r="G49" s="217"/>
+      <c r="H49" s="217"/>
+      <c r="I49" s="217"/>
+      <c r="J49" s="217"/>
+      <c r="K49" s="217"/>
+      <c r="L49" s="217"/>
+      <c r="M49" s="217"/>
+      <c r="N49" s="217"/>
+      <c r="O49" s="217"/>
       <c r="P49" s="7"/>
-      <c r="R49" s="223"/>
-      <c r="S49" s="224"/>
-      <c r="T49" s="224"/>
-      <c r="U49" s="224"/>
-      <c r="V49" s="224"/>
-      <c r="W49" s="224"/>
-      <c r="X49" s="225"/>
-      <c r="Y49" s="224"/>
-      <c r="Z49" s="223"/>
-      <c r="AA49" s="224"/>
-      <c r="AB49" s="224"/>
-      <c r="AC49" s="224"/>
-      <c r="AD49" s="224"/>
-      <c r="AE49" s="224"/>
-      <c r="AF49" s="225"/>
+      <c r="R49" s="211"/>
+      <c r="S49" s="212"/>
+      <c r="T49" s="212"/>
+      <c r="U49" s="212"/>
+      <c r="V49" s="212"/>
+      <c r="W49" s="212"/>
+      <c r="X49" s="213"/>
+      <c r="Y49" s="212"/>
+      <c r="Z49" s="211"/>
+      <c r="AA49" s="212"/>
+      <c r="AB49" s="212"/>
+      <c r="AC49" s="212"/>
+      <c r="AD49" s="212"/>
+      <c r="AE49" s="212"/>
+      <c r="AF49" s="213"/>
     </row>
     <row r="50" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="235" t="s">
-        <v>375</v>
-      </c>
-      <c r="B50" s="235"/>
-      <c r="C50" s="235"/>
+      <c r="A50" s="218" t="s">
+        <v>382</v>
+      </c>
+      <c r="B50" s="218"/>
+      <c r="C50" s="218"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="231"/>
-      <c r="F50" s="231"/>
-      <c r="G50" s="231"/>
-      <c r="H50" s="231"/>
-      <c r="I50" s="231"/>
-      <c r="J50" s="231"/>
-      <c r="K50" s="231"/>
-      <c r="L50" s="231"/>
-      <c r="M50" s="231"/>
-      <c r="N50" s="231"/>
-      <c r="O50" s="231"/>
+      <c r="E50" s="217"/>
+      <c r="F50" s="217"/>
+      <c r="G50" s="217"/>
+      <c r="H50" s="217"/>
+      <c r="I50" s="217"/>
+      <c r="J50" s="217"/>
+      <c r="K50" s="217"/>
+      <c r="L50" s="217"/>
+      <c r="M50" s="217"/>
+      <c r="N50" s="217"/>
+      <c r="O50" s="217"/>
       <c r="P50" s="7"/>
-      <c r="R50" s="223"/>
-      <c r="S50" s="224"/>
-      <c r="T50" s="224"/>
-      <c r="U50" s="224"/>
-      <c r="V50" s="224"/>
-      <c r="W50" s="224"/>
-      <c r="X50" s="225"/>
-      <c r="Y50" s="224"/>
-      <c r="Z50" s="223"/>
-      <c r="AA50" s="224"/>
-      <c r="AB50" s="224"/>
-      <c r="AC50" s="224"/>
-      <c r="AD50" s="224"/>
-      <c r="AE50" s="224"/>
-      <c r="AF50" s="225"/>
+      <c r="R50" s="211"/>
+      <c r="S50" s="212"/>
+      <c r="T50" s="212"/>
+      <c r="U50" s="212"/>
+      <c r="V50" s="212"/>
+      <c r="W50" s="212"/>
+      <c r="X50" s="213"/>
+      <c r="Y50" s="212"/>
+      <c r="Z50" s="211"/>
+      <c r="AA50" s="212"/>
+      <c r="AB50" s="212"/>
+      <c r="AC50" s="212"/>
+      <c r="AD50" s="212"/>
+      <c r="AE50" s="212"/>
+      <c r="AF50" s="213"/>
     </row>
     <row r="51" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="236" t="s">
-        <v>376</v>
-      </c>
-      <c r="B51" s="237"/>
-      <c r="C51" s="238" t="s">
-        <v>377</v>
+      <c r="A51" s="219" t="s">
+        <v>383</v>
+      </c>
+      <c r="B51" s="220"/>
+      <c r="C51" s="221" t="s">
+        <v>384</v>
       </c>
       <c r="D51" s="7"/>
-      <c r="E51" s="231"/>
-      <c r="F51" s="231"/>
-      <c r="G51" s="231"/>
-      <c r="H51" s="231"/>
-      <c r="I51" s="231"/>
-      <c r="J51" s="231"/>
-      <c r="K51" s="231"/>
-      <c r="L51" s="231"/>
-      <c r="M51" s="231"/>
-      <c r="N51" s="231"/>
-      <c r="O51" s="231"/>
+      <c r="E51" s="217"/>
+      <c r="F51" s="217"/>
+      <c r="G51" s="217"/>
+      <c r="H51" s="217"/>
+      <c r="I51" s="217"/>
+      <c r="J51" s="217"/>
+      <c r="K51" s="217"/>
+      <c r="L51" s="217"/>
+      <c r="M51" s="217"/>
+      <c r="N51" s="217"/>
+      <c r="O51" s="217"/>
       <c r="P51" s="7"/>
-      <c r="R51" s="239"/>
-      <c r="S51" s="240"/>
-      <c r="T51" s="240"/>
-      <c r="U51" s="240"/>
-      <c r="V51" s="240"/>
-      <c r="W51" s="240"/>
-      <c r="X51" s="241"/>
-      <c r="Y51" s="242"/>
-      <c r="Z51" s="239"/>
-      <c r="AA51" s="240"/>
-      <c r="AB51" s="240"/>
-      <c r="AC51" s="240"/>
-      <c r="AD51" s="240"/>
-      <c r="AE51" s="240"/>
-      <c r="AF51" s="241"/>
+      <c r="R51" s="222"/>
+      <c r="S51" s="223"/>
+      <c r="T51" s="223"/>
+      <c r="U51" s="223"/>
+      <c r="V51" s="223"/>
+      <c r="W51" s="223"/>
+      <c r="X51" s="224"/>
+      <c r="Y51" s="225"/>
+      <c r="Z51" s="222"/>
+      <c r="AA51" s="223"/>
+      <c r="AB51" s="223"/>
+      <c r="AC51" s="223"/>
+      <c r="AD51" s="223"/>
+      <c r="AE51" s="223"/>
+      <c r="AF51" s="224"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R52" s="243"/>
-      <c r="S52" s="243"/>
-      <c r="T52" s="243"/>
-      <c r="U52" s="243"/>
-      <c r="V52" s="243"/>
-      <c r="W52" s="243"/>
-      <c r="X52" s="243"/>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R52" s="226"/>
+      <c r="S52" s="226"/>
+      <c r="T52" s="226"/>
+      <c r="U52" s="226"/>
+      <c r="V52" s="226"/>
+      <c r="W52" s="226"/>
+      <c r="X52" s="226"/>
       <c r="Y52" s="7"/>
-      <c r="Z52" s="243"/>
-      <c r="AA52" s="243"/>
-      <c r="AB52" s="243"/>
-      <c r="AC52" s="243"/>
-      <c r="AD52" s="243"/>
-      <c r="AE52" s="243"/>
-      <c r="AF52" s="243"/>
+      <c r="Z52" s="226"/>
+      <c r="AA52" s="226"/>
+      <c r="AB52" s="226"/>
+      <c r="AC52" s="226"/>
+      <c r="AD52" s="226"/>
+      <c r="AE52" s="226"/>
+      <c r="AF52" s="226"/>
     </row>
   </sheetData>
   <mergeCells count="30">
